--- a/biology/Botanique/Rhaphiostylis_elegans/Rhaphiostylis_elegans.xlsx
+++ b/biology/Botanique/Rhaphiostylis_elegans/Rhaphiostylis_elegans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhaphiostylis elegans Engl. est une espèce d'arbres de la famille des Icacinaceae et du genre Rhaphiostylis, endémique du Cameroun.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbuste présentant de fins branchages (0,5-1 mm de diamètre) et des feuilles presque sessiles (5-8 x 3-5 cm) longues et acuminées (2 cm). Le pétiole ne mesure que 1-2 mm. et est canaliculé dessus. Limbe coriace, vert à la face supérieure, vert plus pâle à la face inférieure, luisant sur les deux faces, oblong-ové, 5-8 x 3-5 cm ; sommet se terminant en acumen étroit de 1-2 x 0,2 cm. Nervures secondaires :  4-5 paires, s'anastomosant loin du bord du limbe, concaves dessus, saillantes dessous. Le fruit est un drupe réniforme (qui a la forme d'un rein[2]).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbuste présentant de fins branchages (0,5-1 mm de diamètre) et des feuilles presque sessiles (5-8 x 3-5 cm) longues et acuminées (2 cm). Le pétiole ne mesure que 1-2 mm. et est canaliculé dessus. Limbe coriace, vert à la face supérieure, vert plus pâle à la face inférieure, luisant sur les deux faces, oblong-ové, 5-8 x 3-5 cm ; sommet se terminant en acumen étroit de 1-2 x 0,2 cm. Nervures secondaires :  4-5 paires, s'anastomosant loin du bord du limbe, concaves dessus, saillantes dessous. Le fruit est un drupe réniforme (qui a la forme d'un rein).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante endémique du Cameroun, très rare, collectée en 1908 par Georg August Zenker à Bipindi dans la Région du Sud[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante endémique du Cameroun, très rare, collectée en 1908 par Georg August Zenker à Bipindi dans la Région du Sud.
 </t>
         </is>
       </c>
